--- a/watermelon_3a.xlsx
+++ b/watermelon_3a.xlsx
@@ -25,6 +25,7 @@
   </si>
   <si>
     <t>好瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -371,7 +372,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/watermelon_3a.xlsx
+++ b/watermelon_3a.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -31,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,11 +81,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -127,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,9 +167,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,6 +219,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,16 +412,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -402,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -416,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -430,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -444,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -458,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -472,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -486,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -500,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -511,10 +558,10 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -525,10 +572,10 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -539,10 +586,10 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -553,10 +600,10 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -567,10 +614,10 @@
         <v>0.161</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -581,10 +628,10 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -595,10 +642,10 @@
         <v>0.37</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -609,10 +656,10 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -623,7 +670,7 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -634,12 +681,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -648,12 +698,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/watermelon_3a.xlsx
+++ b/watermelon_3a.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -31,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +92,259 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="77625216"/>
+        <c:axId val="77623296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="77625216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77623296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77623296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77625216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79979819189268009"/>
+          <c:y val="0.24980788859725866"/>
+          <c:w val="0.15575736366287549"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,27 +418,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,24 +452,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,19 +627,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -449,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -463,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -477,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -491,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -505,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -519,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -533,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -547,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -561,7 +776,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -575,7 +790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -589,7 +804,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -603,7 +818,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -617,7 +832,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -631,7 +846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -645,7 +860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -659,7 +874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -677,16 +892,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -698,12 +914,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
